--- a/frontend-cemos/public/assets/content/direito/8-cnudm/script/vf1.xlsx
+++ b/frontend-cemos/public/assets/content/direito/8-cnudm/script/vf1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,27 +483,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pág 1</t>
+          <t>Pág 2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Parte I</t>
+          <t>Parte I - Introdução</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Os Estados Partes reconhecem que os problemas do espaço oceânico estão estreitamente inter-relacionados e devem ser considerados como um todo.</t>
+          <t>Para fins da Convenção, o termo 'Área' refere-se ao leito do mar, aos fundos marinhos e ao seu subsolo situados além dos limites da jurisdição nacional.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Os Estados Partes entendem que os problemas do espaço oceânico são independentes entre si e devem ser tratados de forma isolada e fragmentada.</t>
+          <t>O termo 'Área', na Convenção, engloba todo o leito do mar e fundos marinhos, incluindo as zonas costeiras sob jurisdição nacional dos Estados.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Os problemas do espaço oceânico estão estreitamente inter-relacionados e devem ser considerados como um todo.</t>
+          <t>Conforme o **Artigo 1, parágrafo 1, item 1**, a Área é definida especificamente como o espaço além dos limites da jurisdição nacional.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -517,27 +517,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pág 1</t>
+          <t>Pág 2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Parte I</t>
+          <t>Parte I - Introdução</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A Convenção reafirma que os fundos marinhos e oceânicos além da jurisdição nacional, bem como seus recursos, são patrimônio comum da humanidade.</t>
+          <t>A poluição do meio marinho é definida como a introdução, direta ou indireta, de substâncias ou energia que provoque efeitos nocivos, como danos aos recursos vivos.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>A Convenção estabelece que os fundos marinhos além da jurisdição nacional pertencem exclusivamente aos países costeiros mais próximos.</t>
+          <t>A definição de poluição do meio marinho restringe-se ao vazamento de substâncias físicas tóxicas, excluindo expressamente a introdução de energia no meio aquático.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A resolução 2749 (XXV) declarou que os fundos marinhos além dos limites de jurisdição nacional são patrimônio comum da humanidade.</t>
+          <t>Segundo o **Artigo 1, parágrafo 1, item 4**, a poluição inclui a introdução pelo homem de substâncias ou de *energia* no meio marinho.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -551,133 +551,31 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pág 1</t>
+          <t>Pág 2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Parte I</t>
+          <t>Parte I - Introdução</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Os fatos ocorridos desde as Conferências de Genebra em 1958 e 1960 acentuaram a necessidade de uma nova Convenção sobre o direito do mar de aceitação geral.</t>
+          <t>O lançamento de detritos derivados da exploração normal de uma embarcação não é considerado alijamento, exceto se tais detritos forem transportados especificamente para serem lançados.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>As Conferências de Genebra de 1958 e 1960 resolveram definitivamente todas as questões, tornando desnecessária uma nova Convenção sobre o direito do mar.</t>
+          <t>Considera-se alijamento qualquer descarte no mar, inclusive o lançamento de detritos resultantes da operação normal e rotineira de uma embarcação ou plataforma.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Verificou-se que os fatos ocorridos desde as Conferências de Genebra acentuaram a necessidade de uma nova Convenção.</t>
+          <t>De acordo com o **Artigo 1, parágrafo 1, item 5, alínea b, subitem i**, o alijamento não inclui detritos da exploração normal, salvo exceções de transporte específico.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Decreto nº 1533/1995 - CNUDM.</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Pág 2</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Parte I</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>As matérias não reguladas pela presente Convenção continuarão a ser regidas pelas normas e princípios do direito internacional geral.</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>As matérias não reguladas pela presente Convenção deixarão de ter qualquer amparo jurídico até que uma nova emenda seja aprovada.</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>O texto afirma que as matérias não reguladas continuam a ser regidas pelas normas e princípios do direito internacional geral.</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Decreto nº 1533/1995 - CNUDM.</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Pág 2</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Parte I</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Para efeitos da Convenção, "Área" significa o leito do mar, os fundos marinhos e o seu subsolo além dos limites da jurisdição nacional.</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Para efeitos da Convenção, "Área" refere-se a toda a extensão oceânica, incluindo as águas territoriais e as zonas econômicas exclusivas dos Estados.</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>"Área" é definida especificamente como o leito do mar, fundos marinhos e subsolo além dos limites da jurisdição nacional.</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Decreto nº 1533/1995 - CNUDM.</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Pág 2</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Parte I</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>O termo "alijamento" não inclui o lançamento de detritos resultantes da exploração normal de embarcações, aeronaves e plataformas.</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>O termo "alijamento" abrange qualquer tipo de lançamento de detritos ao mar, inclusive aqueles derivados da operação normal de embarcações.</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>O conceito de "alijamento" exclui expressamente o lançamento de detritos resultantes da exploração normal de embarcações e estruturas.</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
